--- a/src/main/resources/tp/预估税单.xlsx
+++ b/src/main/resources/tp/预估税单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D4F02BBA-514F-4738-A34F-B1C3E12474BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F29745-DBBD-4BBA-B2ED-7DF564F9FDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="7770"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="预估税金" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -551,15 +551,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -775,10 +775,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="e">
-        <f>+B3C5:D8</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>

--- a/src/main/resources/tp/预估税单.xlsx
+++ b/src/main/resources/tp/预估税单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F29745-DBBD-4BBA-B2ED-7DF564F9FDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37E5DA-992C-4F8B-9CEE-B1BD4F019AC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,28 +46,16 @@
     <t>重量</t>
   </si>
   <si>
-    <t>净重</t>
-  </si>
-  <si>
-    <t>保价</t>
-  </si>
-  <si>
     <t>收件人姓名</t>
   </si>
   <si>
     <t>收件人身份证号</t>
   </si>
   <si>
-    <t>城市</t>
-  </si>
-  <si>
     <t>收件人地址</t>
   </si>
   <si>
     <t>收件人电话</t>
-  </si>
-  <si>
-    <t>邮编</t>
   </si>
   <si>
     <t>{{$fe:list t.no</t>
@@ -131,6 +119,22 @@
   </si>
   <si>
     <t>t.zipCode}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,78 +612,78 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
